--- a/new original/_Lang_Chinese/Lang/CN/Dialog/Drama/kettle.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Dialog/Drama/kettle.xlsx
@@ -2664,7 +2664,7 @@
   </si>
   <si>
     <t xml:space="preserve">…師よ、ここにいる愚か者にも理解できるよう、後でよく教えてやるといいでしょう。魔術師にとって言葉がどれほど重いものかを。
-僕は約束を守ると決めています。たとえ今すぐにでも、その男が気に触ったという理由だけで、この場を惨状に変えられる魔力が僕に残っているとしても、です。</t>
+僕は約束を守ると決めています。たとえ今すぐにでも、その男が気に障ったという理由だけで、この場を惨状に変えられる魔力が僕に残っているとしても、です。</t>
   </si>
   <si>
     <t xml:space="preserve">…Master, you would do well to explain this properly later, so that even the fool standing here may understand how heavy words are to a mage. 
@@ -3703,7 +3703,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment/>
       <protection locked="1"/>
@@ -3777,26 +3777,6 @@
       <protection locked="1"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-      <protection locked="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="1"/>
     </xf>
@@ -4005,9 +3985,9 @@
   <dimension ref="A1:IX451"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A433" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L446" sqref="L446"/>
-      <selection pane="bottomLeft" activeCell="J444" sqref="J444"/>
+      <selection pane="bottomLeft" activeCell="J432" sqref="J432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
@@ -4268,7 +4248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" ht="74.6">
+    <row r="27" ht="64.15">
       <c r="I27" s="1">
         <v>22</v>
       </c>
@@ -4282,7 +4262,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="28" ht="74.6">
+    <row r="28" ht="64.15">
       <c r="I28" s="1">
         <v>23</v>
       </c>
@@ -4425,7 +4405,7 @@
       <c r="J40" s="7"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" ht="85.05">
+    <row r="41" ht="79.85">
       <c r="I41" s="1">
         <v>16</v>
       </c>
@@ -4965,7 +4945,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="84" ht="53.7">
+    <row r="84" ht="46.25">
       <c r="G84" s="1" t="s">
         <v>88</v>
       </c>
@@ -5328,7 +5308,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="114" ht="46.25">
+    <row r="114" ht="35.05">
       <c r="G114" s="6" t="s">
         <v>88</v>
       </c>
@@ -5345,7 +5325,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="115" ht="113.4">
+    <row r="115" ht="91">
       <c r="G115" s="6" t="s">
         <v>88</v>
       </c>
@@ -5419,7 +5399,7 @@
       <c r="J119" s="7"/>
       <c r="K119" s="4"/>
     </row>
-    <row r="120" ht="45.5">
+    <row r="120" ht="37.3">
       <c r="E120" s="6"/>
       <c r="F120" s="10"/>
       <c r="G120" s="6" t="s">
@@ -5826,7 +5806,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="146" ht="53.7">
+    <row r="146" ht="49.25">
       <c r="G146" s="6" t="s">
         <v>47</v>
       </c>
@@ -6652,7 +6632,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="176" ht="23.85">
+    <row r="176" ht="13.8">
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6" t="s">
@@ -7831,7 +7811,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="224" ht="23.85">
+    <row r="224" ht="13.8">
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="6" t="s">
@@ -9401,7 +9381,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="306" ht="56.7">
+    <row r="306" ht="46.25">
       <c r="G306" s="6" t="s">
         <v>47</v>
       </c>
@@ -9702,7 +9682,7 @@
     <row r="334" ht="12.8">
       <c r="F334" s="16"/>
     </row>
-    <row r="335" ht="43.25">
+    <row r="335" ht="35.05">
       <c r="F335" s="16"/>
       <c r="G335" s="1" t="s">
         <v>47</v>
@@ -9769,7 +9749,7 @@
       <c r="J339" s="7"/>
       <c r="K339" s="6"/>
     </row>
-    <row r="340" ht="85.05">
+    <row r="340" ht="79.85">
       <c r="F340" s="16"/>
       <c r="G340" s="1" t="s">
         <v>47</v>
@@ -9996,7 +9976,7 @@
       <c r="J354" s="7"/>
       <c r="K354" s="6"/>
     </row>
-    <row r="355" ht="53.7">
+    <row r="355" ht="46.25">
       <c r="F355" s="16"/>
       <c r="G355" s="1" t="s">
         <v>47</v>
@@ -10470,7 +10450,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="395" ht="53.7">
+    <row r="395" ht="43.25">
       <c r="F395" s="16"/>
       <c r="G395" s="1" t="s">
         <v>47</v>
@@ -10506,7 +10486,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="397" ht="43.25">
+    <row r="397" ht="32.8">
       <c r="F397" s="16"/>
       <c r="G397" s="1" t="s">
         <v>47</v>
@@ -10608,10 +10588,10 @@
       <c r="I410" s="1">
         <v>250</v>
       </c>
-      <c r="J410" s="19" t="s">
+      <c r="J410" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="K410" s="20" t="s">
+      <c r="K410" s="6" t="s">
         <v>469</v>
       </c>
       <c r="L410" t="s">
@@ -10628,7 +10608,7 @@
       <c r="J411" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="K411" s="20" t="s">
+      <c r="K411" s="6" t="s">
         <v>471</v>
       </c>
       <c r="L411" t="s">
@@ -10645,7 +10625,7 @@
       <c r="J412" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="K412" s="20" t="s">
+      <c r="K412" s="6" t="s">
         <v>473</v>
       </c>
       <c r="L412" t="s">
@@ -10662,7 +10642,7 @@
       <c r="J413" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="K413" s="20" t="s">
+      <c r="K413" s="6" t="s">
         <v>475</v>
       </c>
       <c r="L413" t="s">
@@ -10676,10 +10656,10 @@
       <c r="I414" s="1">
         <v>254</v>
       </c>
-      <c r="J414" s="19" t="s">
+      <c r="J414" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="K414" s="20" t="s">
+      <c r="K414" s="6" t="s">
         <v>477</v>
       </c>
       <c r="L414" t="s">
@@ -10696,7 +10676,7 @@
       <c r="J415" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="K415" s="20" t="s">
+      <c r="K415" s="6" t="s">
         <v>479</v>
       </c>
       <c r="L415" t="s">
@@ -10713,7 +10693,7 @@
       <c r="J416" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="K416" s="20" t="s">
+      <c r="K416" s="6" t="s">
         <v>481</v>
       </c>
       <c r="L416" t="s">
@@ -10730,7 +10710,7 @@
       <c r="J417" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="K417" s="20" t="s">
+      <c r="K417" s="6" t="s">
         <v>483</v>
       </c>
       <c r="L417" t="s">
@@ -10747,7 +10727,7 @@
       <c r="J418" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="K418" s="20" t="s">
+      <c r="K418" s="6" t="s">
         <v>485</v>
       </c>
       <c r="L418" t="s">
@@ -10761,10 +10741,10 @@
       <c r="I419" s="1">
         <v>259</v>
       </c>
-      <c r="J419" s="21" t="s">
+      <c r="J419" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="K419" s="20" t="s">
+      <c r="K419" s="6" t="s">
         <v>487</v>
       </c>
       <c r="L419" t="s">
@@ -10781,7 +10761,7 @@
       <c r="J420" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="K420" s="20" t="s">
+      <c r="K420" s="6" t="s">
         <v>489</v>
       </c>
       <c r="L420" t="s">
@@ -10798,7 +10778,7 @@
       <c r="J421" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="K421" s="22" t="s">
+      <c r="K421" s="9" t="s">
         <v>491</v>
       </c>
       <c r="L421" t="s">
@@ -10815,7 +10795,7 @@
       <c r="J422" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="K422" s="20" t="s">
+      <c r="K422" s="6" t="s">
         <v>493</v>
       </c>
       <c r="L422" t="s">
@@ -10832,7 +10812,7 @@
       <c r="J423" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="K423" s="20" t="s">
+      <c r="K423" s="6" t="s">
         <v>495</v>
       </c>
       <c r="L423" t="s">
@@ -10841,7 +10821,7 @@
     </row>
     <row r="424" ht="13.8">
       <c r="J424" s="7"/>
-      <c r="K424" s="20"/>
+      <c r="K424" s="6"/>
     </row>
     <row r="425" ht="13.8">
       <c r="E425" s="6" t="s">
@@ -10851,7 +10831,7 @@
         <v>2</v>
       </c>
       <c r="J425" s="7"/>
-      <c r="K425" s="20"/>
+      <c r="K425" s="6"/>
     </row>
     <row r="426" ht="13.8">
       <c r="E426" s="1" t="s">
@@ -10861,7 +10841,7 @@
         <v>13</v>
       </c>
       <c r="J426" s="7"/>
-      <c r="K426" s="20"/>
+      <c r="K426" s="6"/>
     </row>
     <row r="427" ht="13.8">
       <c r="E427" s="6" t="s">
@@ -10872,11 +10852,11 @@
       </c>
       <c r="G427" s="6"/>
       <c r="J427" s="7"/>
-      <c r="K427" s="20"/>
+      <c r="K427" s="6"/>
     </row>
     <row r="428" ht="12.8">
       <c r="J428" s="18"/>
-      <c r="K428" s="20"/>
+      <c r="K428" s="6"/>
     </row>
     <row r="429" ht="13.8">
       <c r="F429" s="16"/>
@@ -10889,7 +10869,7 @@
       <c r="J429" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K429" s="20" t="s">
+      <c r="K429" s="6" t="s">
         <v>112</v>
       </c>
       <c r="L429" t="s">
@@ -10907,7 +10887,7 @@
       <c r="J430" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="K430" s="20" t="s">
+      <c r="K430" s="6" t="s">
         <v>497</v>
       </c>
       <c r="L430" t="s">
@@ -10925,7 +10905,7 @@
       <c r="J431" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="K431" s="22" t="s">
+      <c r="K431" s="9" t="s">
         <v>499</v>
       </c>
       <c r="L431" t="s">
@@ -10940,10 +10920,10 @@
       <c r="I432" s="1">
         <v>267</v>
       </c>
-      <c r="J432" s="21" t="s">
+      <c r="J432" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="K432" s="20" t="s">
+      <c r="K432" s="6" t="s">
         <v>501</v>
       </c>
       <c r="L432" t="s">
@@ -10961,7 +10941,7 @@
       <c r="J433" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K433" s="20" t="s">
+      <c r="K433" s="6" t="s">
         <v>112</v>
       </c>
       <c r="L433" t="s">
@@ -10979,7 +10959,7 @@
       <c r="J434" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="K434" s="20" t="s">
+      <c r="K434" s="6" t="s">
         <v>503</v>
       </c>
       <c r="L434" t="s">
@@ -10994,10 +10974,10 @@
       <c r="I435" s="1">
         <v>270</v>
       </c>
-      <c r="J435" s="21" t="s">
+      <c r="J435" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="K435" s="20" t="s">
+      <c r="K435" s="6" t="s">
         <v>505</v>
       </c>
       <c r="L435" t="s">
@@ -11012,10 +10992,10 @@
       <c r="I436" s="1">
         <v>271</v>
       </c>
-      <c r="J436" s="23" t="s">
+      <c r="J436" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="K436" s="20" t="s">
+      <c r="K436" s="6" t="s">
         <v>507</v>
       </c>
       <c r="L436" t="s">
@@ -11033,7 +11013,7 @@
       <c r="J437" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="K437" s="20" t="s">
+      <c r="K437" s="6" t="s">
         <v>509</v>
       </c>
       <c r="L437" t="s">
@@ -11051,7 +11031,7 @@
       <c r="J438" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K438" s="20" t="s">
+      <c r="K438" s="6" t="s">
         <v>112</v>
       </c>
       <c r="L438" t="s">
@@ -11066,10 +11046,10 @@
       <c r="I439" s="1">
         <v>274</v>
       </c>
-      <c r="J439" s="21" t="s">
+      <c r="J439" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="K439" s="20" t="s">
+      <c r="K439" s="6" t="s">
         <v>511</v>
       </c>
       <c r="L439" t="s">
@@ -11087,7 +11067,7 @@
       <c r="J440" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="K440" s="20" t="s">
+      <c r="K440" s="6" t="s">
         <v>513</v>
       </c>
       <c r="L440" t="s">
@@ -11105,7 +11085,7 @@
       <c r="J441" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="K441" s="20" t="s">
+      <c r="K441" s="6" t="s">
         <v>513</v>
       </c>
       <c r="L441" t="s">
@@ -11123,7 +11103,7 @@
       <c r="J442" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K442" s="20" t="s">
+      <c r="K442" s="6" t="s">
         <v>112</v>
       </c>
       <c r="L442" t="s">
@@ -11141,7 +11121,7 @@
       <c r="J443" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="K443" s="20" t="s">
+      <c r="K443" s="6" t="s">
         <v>515</v>
       </c>
       <c r="L443" t="s">
@@ -11156,10 +11136,10 @@
       <c r="I444" s="1">
         <v>279</v>
       </c>
-      <c r="J444" s="21" t="s">
+      <c r="J444" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="K444" s="20" t="s">
+      <c r="K444" s="6" t="s">
         <v>517</v>
       </c>
       <c r="L444" t="s">
@@ -11174,10 +11154,10 @@
       <c r="I445" s="1">
         <v>280</v>
       </c>
-      <c r="J445" s="24" t="s">
+      <c r="J445" s="19" t="s">
         <v>518</v>
       </c>
-      <c r="K445" s="20" t="s">
+      <c r="K445" s="6" t="s">
         <v>519</v>
       </c>
       <c r="L445" t="s">
@@ -11195,7 +11175,7 @@
       <c r="J446" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="K446" s="20" t="s">
+      <c r="K446" s="6" t="s">
         <v>521</v>
       </c>
       <c r="L446" t="s">
@@ -11212,7 +11192,7 @@
       <c r="J448" s="7"/>
       <c r="K448" s="6"/>
     </row>
-    <row r="449" ht="43.25">
+    <row r="449" ht="12.8">
       <c r="E449" s="1" t="s">
         <v>75</v>
       </c>
